--- a/images/耗时.xlsx
+++ b/images/耗时.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C#Project\ParserToolEvaluation\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BAAA81-5A26-4DF6-84B1-C15004C37DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275CCFD2-7129-4737-A9FA-C319C4A7058B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5135,8 +5135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
